--- a/PMO/目标文件(新).xlsx
+++ b/PMO/目标文件(新).xlsx
@@ -5586,10 +5586,7 @@
       <c r="E9" s="296" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="296">
-        <f>SUM(C9:E9)</f>
-        <v/>
-      </c>
+      <c r="F9" s="296" t="n"/>
     </row>
     <row r="10" ht="20.15" customHeight="1" s="291">
       <c r="A10" s="24" t="n">
@@ -5603,10 +5600,7 @@
       <c r="E10" s="295" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="295">
-        <f>SUM(C10:E10)</f>
-        <v/>
-      </c>
+      <c r="F10" s="295" t="n"/>
     </row>
     <row r="11" ht="20.15" customHeight="1" s="291">
       <c r="A11" s="26" t="n">
@@ -5620,10 +5614,7 @@
       <c r="E11" s="296" t="n">
         <v>3306.28</v>
       </c>
-      <c r="F11" s="296">
-        <f>SUM(C11:E11)</f>
-        <v/>
-      </c>
+      <c r="F11" s="296" t="n"/>
       <c r="G11" s="297" t="n"/>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="291">
@@ -5638,10 +5629,7 @@
       <c r="E12" s="295" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="295">
-        <f>SUM(C12:E12)</f>
-        <v/>
-      </c>
+      <c r="F12" s="295" t="n"/>
       <c r="G12" s="297" t="n"/>
     </row>
     <row r="13" ht="20.15" customHeight="1" s="291">
@@ -5656,10 +5644,7 @@
       <c r="E13" s="296" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="296">
-        <f>SUM(C13:E13)</f>
-        <v/>
-      </c>
+      <c r="F13" s="296" t="n"/>
       <c r="G13" s="297" t="n"/>
     </row>
     <row r="14" ht="20.15" customHeight="1" s="291">
@@ -5674,10 +5659,7 @@
       <c r="E14" s="295" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="295">
-        <f>SUM(C14:E14)</f>
-        <v/>
-      </c>
+      <c r="F14" s="295" t="n"/>
       <c r="G14" s="297" t="n"/>
     </row>
     <row r="15" ht="20.15" customHeight="1" s="291">
@@ -5686,13 +5668,18 @@
       </c>
       <c r="B15" s="296" t="n"/>
       <c r="C15" s="296" t="n"/>
-      <c r="D15" s="296" t="n"/>
-      <c r="E15" s="296" t="n"/>
-      <c r="F15" s="296">
-        <f>SUM(C15:E15)</f>
-        <v/>
-      </c>
-      <c r="G15" s="297" t="n"/>
+      <c r="D15" s="296" t="n">
+        <v>555</v>
+      </c>
+      <c r="E15" s="296" t="n">
+        <v>555</v>
+      </c>
+      <c r="F15" s="296" t="n">
+        <v>555</v>
+      </c>
+      <c r="G15" s="297" t="n">
+        <v>555</v>
+      </c>
     </row>
     <row r="16" ht="20.15" customHeight="1" s="291">
       <c r="A16" s="24" t="n">
@@ -5702,10 +5689,7 @@
       <c r="C16" s="295" t="n"/>
       <c r="D16" s="295" t="n"/>
       <c r="E16" s="295" t="n"/>
-      <c r="F16" s="295">
-        <f>SUM(C16:E16)</f>
-        <v/>
-      </c>
+      <c r="F16" s="295" t="n"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="291">
       <c r="A17" s="26" t="n">
@@ -5715,10 +5699,7 @@
       <c r="C17" s="296" t="n"/>
       <c r="D17" s="296" t="n"/>
       <c r="E17" s="296" t="n"/>
-      <c r="F17" s="296">
-        <f>SUM(C17:E17)</f>
-        <v/>
-      </c>
+      <c r="F17" s="296" t="n"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" s="291">
       <c r="A18" s="24" t="n">
@@ -5726,11 +5707,17 @@
       </c>
       <c r="B18" s="295" t="n"/>
       <c r="C18" s="295" t="n"/>
-      <c r="D18" s="295" t="n"/>
-      <c r="E18" s="295" t="n"/>
-      <c r="F18" s="295">
-        <f>SUM(C18:E18)</f>
-        <v/>
+      <c r="D18" s="295" t="n">
+        <v>555</v>
+      </c>
+      <c r="E18" s="295" t="n">
+        <v>555</v>
+      </c>
+      <c r="F18" s="295" t="n">
+        <v>55</v>
+      </c>
+      <c r="G18" t="n">
+        <v>555</v>
       </c>
     </row>
     <row r="19" ht="20.15" customHeight="1" s="291">
@@ -5741,10 +5728,7 @@
       <c r="C19" s="296" t="n"/>
       <c r="D19" s="296" t="n"/>
       <c r="E19" s="296" t="n"/>
-      <c r="F19" s="296">
-        <f>SUM(C19:E19)</f>
-        <v/>
-      </c>
+      <c r="F19" s="296" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="291">
       <c r="A20" s="24" t="n">
@@ -5758,10 +5742,7 @@
       <c r="E20" s="295" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="295">
-        <f>SUM(C20:E20)</f>
-        <v/>
-      </c>
+      <c r="F20" s="295" t="n"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" s="291">
       <c r="A21" s="26" t="n">
@@ -5775,10 +5756,7 @@
       <c r="E21" s="296" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="296">
-        <f>SUM(C21:E21)</f>
-        <v/>
-      </c>
+      <c r="F21" s="296" t="n"/>
     </row>
     <row r="22" ht="20.15" customHeight="1" s="291">
       <c r="A22" s="24" t="n">
@@ -5788,10 +5766,7 @@
       <c r="C22" s="295" t="n"/>
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
-      <c r="F22" s="295">
-        <f>SUM(C22:E22)</f>
-        <v/>
-      </c>
+      <c r="F22" s="295" t="n"/>
     </row>
     <row r="23" ht="20.15" customHeight="1" s="291">
       <c r="A23" s="26" t="n">
@@ -5805,10 +5780,7 @@
       <c r="E23" s="296" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="296">
-        <f>SUM(C23:E23)</f>
-        <v/>
-      </c>
+      <c r="F23" s="296" t="n"/>
     </row>
     <row r="24" ht="20.15" customHeight="1" s="291">
       <c r="A24" s="24" t="n">
@@ -5818,10 +5790,7 @@
       <c r="C24" s="295" t="n"/>
       <c r="D24" s="295" t="n"/>
       <c r="E24" s="295" t="n"/>
-      <c r="F24" s="295">
-        <f>SUM(C24:E24)</f>
-        <v/>
-      </c>
+      <c r="F24" s="295" t="n"/>
     </row>
     <row r="25" ht="20.15" customHeight="1" s="291">
       <c r="A25" s="26" t="n">
@@ -5833,10 +5802,7 @@
         <v>806.71</v>
       </c>
       <c r="E25" s="296" t="n"/>
-      <c r="F25" s="296">
-        <f>SUM(C25:E25)</f>
-        <v/>
-      </c>
+      <c r="F25" s="296" t="n"/>
     </row>
     <row r="26" ht="20.15" customHeight="1" s="291">
       <c r="A26" s="24" t="n">
@@ -5846,10 +5812,7 @@
       <c r="C26" s="295" t="n"/>
       <c r="D26" s="295" t="n"/>
       <c r="E26" s="295" t="n"/>
-      <c r="F26" s="295">
-        <f>SUM(C26:E26)</f>
-        <v/>
-      </c>
+      <c r="F26" s="295" t="n"/>
     </row>
     <row r="27" ht="20.15" customHeight="1" s="291">
       <c r="A27" s="26" t="n">
@@ -5863,10 +5826,7 @@
       <c r="E27" s="296" t="n">
         <v>1060.55</v>
       </c>
-      <c r="F27" s="296">
-        <f>SUM(C27:E27)</f>
-        <v/>
-      </c>
+      <c r="F27" s="296" t="n"/>
     </row>
     <row r="28" ht="20.15" customHeight="1" s="291">
       <c r="A28" s="24" t="n">
@@ -5880,10 +5840,7 @@
       <c r="E28" s="295" t="n">
         <v>26485.64</v>
       </c>
-      <c r="F28" s="295">
-        <f>SUM(C28:E28)</f>
-        <v/>
-      </c>
+      <c r="F28" s="295" t="n"/>
     </row>
     <row r="29" ht="20.15" customHeight="1" s="291">
       <c r="A29" s="26" t="n">
@@ -5895,10 +5852,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="296" t="n"/>
-      <c r="F29" s="296">
-        <f>SUM(C29:E29)</f>
-        <v/>
-      </c>
+      <c r="F29" s="296" t="n"/>
     </row>
     <row r="30" ht="14.5" customHeight="1" s="291">
       <c r="A30" s="24" t="n">
@@ -5908,10 +5862,7 @@
       <c r="C30" s="295" t="n"/>
       <c r="D30" s="295" t="n"/>
       <c r="E30" s="295" t="n"/>
-      <c r="F30" s="295">
-        <f>SUM(C30:E30)</f>
-        <v/>
-      </c>
+      <c r="F30" s="295" t="n"/>
     </row>
     <row r="31" ht="14.5" customHeight="1" s="291">
       <c r="A31" s="26" t="n">
@@ -5921,10 +5872,7 @@
       <c r="C31" s="296" t="n"/>
       <c r="D31" s="296" t="n"/>
       <c r="E31" s="296" t="n"/>
-      <c r="F31" s="296">
-        <f>SUM(C31:E31)</f>
-        <v/>
-      </c>
+      <c r="F31" s="296" t="n"/>
     </row>
     <row r="32" ht="14.5" customHeight="1" s="291">
       <c r="A32" s="24" t="n">
@@ -5944,10 +5892,7 @@
       <c r="C33" s="296" t="n"/>
       <c r="D33" s="296" t="n"/>
       <c r="E33" s="296" t="n"/>
-      <c r="F33" s="296">
-        <f>SUM(C33:E33)</f>
-        <v/>
-      </c>
+      <c r="F33" s="296" t="n"/>
     </row>
     <row r="34" ht="14.5" customHeight="1" s="291">
       <c r="A34" s="24" t="n">
@@ -5957,10 +5902,7 @@
       <c r="C34" s="295" t="n"/>
       <c r="D34" s="295" t="n"/>
       <c r="E34" s="295" t="n"/>
-      <c r="F34" s="295">
-        <f>SUM(C34:E34)</f>
-        <v/>
-      </c>
+      <c r="F34" s="295" t="n"/>
     </row>
     <row r="35" ht="14.5" customHeight="1" s="291">
       <c r="A35" s="26" t="n">
@@ -5970,10 +5912,7 @@
       <c r="C35" s="296" t="n"/>
       <c r="D35" s="296" t="n"/>
       <c r="E35" s="296" t="n"/>
-      <c r="F35" s="296">
-        <f>SUM(C35:E35)</f>
-        <v/>
-      </c>
+      <c r="F35" s="296" t="n"/>
     </row>
     <row r="36" ht="14.5" customHeight="1" s="291">
       <c r="A36" s="28" t="inlineStr">
@@ -6632,9 +6571,13 @@
       <c r="B9" s="295" t="n"/>
       <c r="C9" s="295" t="n"/>
       <c r="D9" s="295" t="n"/>
-      <c r="E9" s="295" t="n"/>
+      <c r="E9" s="295" t="n">
+        <v>6430.67</v>
+      </c>
       <c r="F9" s="295" t="n"/>
-      <c r="G9" s="295" t="n"/>
+      <c r="G9" s="295" t="n">
+        <v>35591.46</v>
+      </c>
       <c r="H9" s="295">
         <f>SUM(C9:G9)</f>
         <v/>
@@ -6679,9 +6622,13 @@
       <c r="B10" s="296" t="n"/>
       <c r="C10" s="296" t="n"/>
       <c r="D10" s="296" t="n"/>
-      <c r="E10" s="296" t="n"/>
+      <c r="E10" s="296" t="n">
+        <v>23710.58</v>
+      </c>
       <c r="F10" s="296" t="n"/>
-      <c r="G10" s="296" t="n"/>
+      <c r="G10" s="296" t="n">
+        <v>4743.42</v>
+      </c>
       <c r="H10" s="296">
         <f>SUM(C10:G10)</f>
         <v/>
@@ -6725,10 +6672,18 @@
       </c>
       <c r="B11" s="295" t="n"/>
       <c r="C11" s="295" t="n"/>
-      <c r="D11" s="295" t="n"/>
-      <c r="E11" s="295" t="n"/>
-      <c r="F11" s="295" t="n"/>
-      <c r="G11" s="295" t="n"/>
+      <c r="D11" s="295" t="n">
+        <v>526</v>
+      </c>
+      <c r="E11" s="295" t="n">
+        <v>30873.46</v>
+      </c>
+      <c r="F11" s="295" t="n">
+        <v>12488.08</v>
+      </c>
+      <c r="G11" s="295" t="n">
+        <v>3112.02</v>
+      </c>
       <c r="H11" s="295">
         <f>SUM(C11:G11)</f>
         <v/>
@@ -6772,9 +6727,15 @@
       </c>
       <c r="B12" s="296" t="n"/>
       <c r="C12" s="296" t="n"/>
-      <c r="D12" s="296" t="n"/>
-      <c r="E12" s="296" t="n"/>
-      <c r="F12" s="296" t="n"/>
+      <c r="D12" s="296" t="n">
+        <v>926.36</v>
+      </c>
+      <c r="E12" s="296" t="n">
+        <v>96342.33000000002</v>
+      </c>
+      <c r="F12" s="296" t="n">
+        <v>13718.97</v>
+      </c>
       <c r="G12" s="296" t="n"/>
       <c r="H12" s="296">
         <f>SUM(C12:G12)</f>
@@ -6820,7 +6781,9 @@
       <c r="B13" s="295" t="n"/>
       <c r="C13" s="295" t="n"/>
       <c r="D13" s="295" t="n"/>
-      <c r="E13" s="295" t="n"/>
+      <c r="E13" s="295" t="n">
+        <v>37299.8</v>
+      </c>
       <c r="F13" s="295" t="n"/>
       <c r="G13" s="295" t="n"/>
       <c r="H13" s="295">
@@ -6870,10 +6833,16 @@
       </c>
       <c r="B14" s="296" t="n"/>
       <c r="C14" s="296" t="n"/>
-      <c r="D14" s="296" t="n"/>
-      <c r="E14" s="296" t="n"/>
+      <c r="D14" s="296" t="n">
+        <v>254939.26</v>
+      </c>
+      <c r="E14" s="296" t="n">
+        <v>30866.8</v>
+      </c>
       <c r="F14" s="296" t="n"/>
-      <c r="G14" s="296" t="n"/>
+      <c r="G14" s="296" t="n">
+        <v>1141</v>
+      </c>
       <c r="H14" s="296">
         <f>SUM(C14:G14)</f>
         <v/>
@@ -6969,7 +6938,9 @@
       <c r="B16" s="296" t="n"/>
       <c r="C16" s="296" t="n"/>
       <c r="D16" s="296" t="n"/>
-      <c r="E16" s="296" t="n"/>
+      <c r="E16" s="296" t="n">
+        <v>23277.66</v>
+      </c>
       <c r="F16" s="296" t="n"/>
       <c r="G16" s="296" t="n"/>
       <c r="H16" s="296">
@@ -8383,9 +8354,8 @@
       <c r="C13" s="296" t="n"/>
       <c r="D13" s="296" t="n"/>
       <c r="E13" s="296" t="n"/>
-      <c r="F13" s="296">
-        <f>2325.48+2606.75</f>
-        <v/>
+      <c r="F13" s="296" t="n">
+        <v>4932.23</v>
       </c>
       <c r="G13" s="296" t="n"/>
       <c r="H13" s="296">
@@ -8401,7 +8371,9 @@
       <c r="C14" s="295" t="n"/>
       <c r="D14" s="295" t="n"/>
       <c r="E14" s="295" t="n"/>
-      <c r="F14" s="295" t="n"/>
+      <c r="F14" s="295" t="n">
+        <v>1511.92</v>
+      </c>
       <c r="G14" s="295" t="n"/>
       <c r="H14" s="295">
         <f>SUM(C14:F14)</f>
@@ -8416,8 +8388,12 @@
       <c r="C15" s="296" t="n"/>
       <c r="D15" s="296" t="n"/>
       <c r="E15" s="296" t="n"/>
-      <c r="F15" s="296" t="n"/>
-      <c r="G15" s="296" t="n"/>
+      <c r="F15" s="296" t="n">
+        <v>13826</v>
+      </c>
+      <c r="G15" s="296" t="n">
+        <v>349</v>
+      </c>
       <c r="H15" s="296">
         <f>SUM(C15:F15)</f>
         <v/>
@@ -9149,7 +9125,9 @@
       <c r="B9" s="295" t="n"/>
       <c r="C9" s="295" t="n"/>
       <c r="D9" s="295" t="n"/>
-      <c r="E9" s="295" t="n"/>
+      <c r="E9" s="295" t="n">
+        <v>4161.21</v>
+      </c>
       <c r="F9" s="295" t="n"/>
       <c r="G9" s="295" t="n"/>
       <c r="H9" s="295">
@@ -9163,8 +9141,12 @@
       </c>
       <c r="B10" s="296" t="n"/>
       <c r="C10" s="296" t="n"/>
-      <c r="D10" s="296" t="n"/>
-      <c r="E10" s="296" t="n"/>
+      <c r="D10" s="296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="296" t="n">
+        <v>7765.289999999999</v>
+      </c>
       <c r="F10" s="296" t="n"/>
       <c r="G10" s="296" t="n"/>
       <c r="H10" s="296">
@@ -9178,8 +9160,12 @@
       </c>
       <c r="B11" s="295" t="n"/>
       <c r="C11" s="295" t="n"/>
-      <c r="D11" s="295" t="n"/>
-      <c r="E11" s="295" t="n"/>
+      <c r="D11" s="295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="295" t="n">
+        <v>11976.21</v>
+      </c>
       <c r="F11" s="295" t="n"/>
       <c r="G11" s="295" t="n"/>
       <c r="H11" s="295">
@@ -9194,9 +9180,15 @@
       <c r="B12" s="296" t="n"/>
       <c r="C12" s="296" t="n"/>
       <c r="D12" s="296" t="n"/>
-      <c r="E12" s="296" t="n"/>
-      <c r="F12" s="296" t="n"/>
-      <c r="G12" s="296" t="n"/>
+      <c r="E12" s="296" t="n">
+        <v>36210.02</v>
+      </c>
+      <c r="F12" s="296" t="n">
+        <v>179632.88</v>
+      </c>
+      <c r="G12" s="296" t="n">
+        <v>644</v>
+      </c>
       <c r="H12" s="296">
         <f>SUM(C12:G12)</f>
         <v/>
@@ -9209,8 +9201,12 @@
       <c r="B13" s="295" t="n"/>
       <c r="C13" s="295" t="n"/>
       <c r="D13" s="295" t="n"/>
-      <c r="E13" s="295" t="n"/>
-      <c r="F13" s="295" t="n"/>
+      <c r="E13" s="295" t="n">
+        <v>4134.11</v>
+      </c>
+      <c r="F13" s="295" t="n">
+        <v>229676.9</v>
+      </c>
       <c r="G13" s="295" t="n"/>
       <c r="H13" s="295">
         <f>SUM(C13:G13)</f>
@@ -9224,9 +9220,15 @@
       <c r="B14" s="296" t="n"/>
       <c r="C14" s="296" t="n"/>
       <c r="D14" s="296" t="n"/>
-      <c r="E14" s="296" t="n"/>
-      <c r="F14" s="296" t="n"/>
-      <c r="G14" s="296" t="n"/>
+      <c r="E14" s="296" t="n">
+        <v>6027.849999999999</v>
+      </c>
+      <c r="F14" s="296" t="n">
+        <v>118867.92</v>
+      </c>
+      <c r="G14" s="296" t="n">
+        <v>58891.81</v>
+      </c>
       <c r="H14" s="296">
         <f>SUM(C14:G14)</f>
         <v/>
@@ -9239,9 +9241,15 @@
       <c r="B15" s="295" t="n"/>
       <c r="C15" s="295" t="n"/>
       <c r="D15" s="295" t="n"/>
-      <c r="E15" s="295" t="n"/>
-      <c r="F15" s="295" t="n"/>
-      <c r="G15" s="295" t="n"/>
+      <c r="E15" s="295" t="n">
+        <v>1363.17</v>
+      </c>
+      <c r="F15" s="295" t="n">
+        <v>93113.21000000001</v>
+      </c>
+      <c r="G15" s="295" t="n">
+        <v>2003</v>
+      </c>
       <c r="H15" s="295">
         <f>SUM(C15:G15)</f>
         <v/>
@@ -9254,8 +9262,12 @@
       <c r="B16" s="296" t="n"/>
       <c r="C16" s="296" t="n"/>
       <c r="D16" s="296" t="n"/>
-      <c r="E16" s="296" t="n"/>
-      <c r="F16" s="296" t="n"/>
+      <c r="E16" s="296" t="n">
+        <v>25319.06</v>
+      </c>
+      <c r="F16" s="296" t="n">
+        <v>282938.49</v>
+      </c>
       <c r="G16" s="296" t="n"/>
       <c r="H16" s="296">
         <f>SUM(C16:G16)</f>
@@ -9268,10 +9280,18 @@
       </c>
       <c r="B17" s="295" t="n"/>
       <c r="C17" s="295" t="n"/>
-      <c r="D17" s="295" t="n"/>
-      <c r="E17" s="295" t="n"/>
-      <c r="F17" s="295" t="n"/>
-      <c r="G17" s="295" t="n"/>
+      <c r="D17" s="295" t="n">
+        <v>1415094.34</v>
+      </c>
+      <c r="E17" s="295" t="n">
+        <v>11500.09</v>
+      </c>
+      <c r="F17" s="295" t="n">
+        <v>124528.3</v>
+      </c>
+      <c r="G17" s="295" t="n">
+        <v>1076</v>
+      </c>
       <c r="H17" s="295">
         <f>SUM(C17:G17)</f>
         <v/>
@@ -9283,10 +9303,18 @@
       </c>
       <c r="B18" s="296" t="n"/>
       <c r="C18" s="296" t="n"/>
-      <c r="D18" s="296" t="n"/>
-      <c r="E18" s="296" t="n"/>
-      <c r="F18" s="296" t="n"/>
-      <c r="G18" s="296" t="n"/>
+      <c r="D18" s="296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="296" t="n">
+        <v>23254.06</v>
+      </c>
+      <c r="F18" s="296" t="n">
+        <v>366233.61</v>
+      </c>
+      <c r="G18" s="296" t="n">
+        <v>4068.7</v>
+      </c>
       <c r="H18" s="296">
         <f>SUM(C18:G18)</f>
         <v/>
@@ -9298,9 +9326,15 @@
       </c>
       <c r="B19" s="295" t="n"/>
       <c r="C19" s="295" t="n"/>
-      <c r="D19" s="295" t="n"/>
-      <c r="E19" s="295" t="n"/>
-      <c r="F19" s="295" t="n"/>
+      <c r="D19" s="295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="295" t="n">
+        <v>14497.43</v>
+      </c>
+      <c r="F19" s="295" t="n">
+        <v>175401.11</v>
+      </c>
       <c r="G19" s="295" t="n"/>
       <c r="H19" s="295">
         <f>SUM(C19:G19)</f>
@@ -9313,9 +9347,15 @@
       </c>
       <c r="B20" s="296" t="n"/>
       <c r="C20" s="296" t="n"/>
-      <c r="D20" s="296" t="n"/>
-      <c r="E20" s="296" t="n"/>
-      <c r="F20" s="296" t="n"/>
+      <c r="D20" s="296" t="n">
+        <v>396</v>
+      </c>
+      <c r="E20" s="296" t="n">
+        <v>23742.41</v>
+      </c>
+      <c r="F20" s="296" t="n">
+        <v>130754.72</v>
+      </c>
       <c r="G20" s="296" t="n"/>
       <c r="H20" s="296">
         <f>SUM(C20:G20)</f>
@@ -9330,7 +9370,9 @@
       <c r="C21" s="295" t="n"/>
       <c r="D21" s="295" t="n"/>
       <c r="E21" s="295" t="n"/>
-      <c r="F21" s="295" t="n"/>
+      <c r="F21" s="295" t="n">
+        <v>84339.62264150943</v>
+      </c>
       <c r="G21" s="295" t="n"/>
       <c r="H21" s="295">
         <f>SUM(C21:G21)</f>
@@ -9362,9 +9404,15 @@
       </c>
       <c r="B23" s="295" t="n"/>
       <c r="C23" s="295" t="n"/>
-      <c r="D23" s="295" t="n"/>
-      <c r="E23" s="295" t="n"/>
-      <c r="F23" s="295" t="n"/>
+      <c r="D23" s="295" t="n">
+        <v>3097345.14</v>
+      </c>
+      <c r="E23" s="295" t="n">
+        <v>55784.02</v>
+      </c>
+      <c r="F23" s="295" t="n">
+        <v>91076.96000000001</v>
+      </c>
       <c r="G23" s="295" t="n"/>
       <c r="H23" s="295">
         <f>SUM(C23:G23)</f>
@@ -10165,7 +10213,9 @@
       </c>
       <c r="B10" s="296" t="n"/>
       <c r="C10" s="296" t="n"/>
-      <c r="D10" s="296" t="n"/>
+      <c r="D10" s="296" t="n">
+        <v>423757.68</v>
+      </c>
       <c r="E10" s="296" t="n"/>
       <c r="F10" s="296" t="n"/>
       <c r="G10" s="296" t="n"/>
@@ -10216,9 +10266,15 @@
       </c>
       <c r="B11" s="295" t="n"/>
       <c r="C11" s="295" t="n"/>
-      <c r="D11" s="295" t="n"/>
-      <c r="E11" s="295" t="n"/>
-      <c r="F11" s="295" t="n"/>
+      <c r="D11" s="295" t="n">
+        <v>275540.94</v>
+      </c>
+      <c r="E11" s="295" t="n">
+        <v>5498.43</v>
+      </c>
+      <c r="F11" s="295" t="n">
+        <v>9145.360000000001</v>
+      </c>
       <c r="G11" s="295" t="n"/>
       <c r="H11" s="295">
         <f>SUM(C11:G11)</f>
@@ -10263,9 +10319,15 @@
       </c>
       <c r="B12" s="296" t="n"/>
       <c r="C12" s="296" t="n"/>
-      <c r="D12" s="296" t="n"/>
-      <c r="E12" s="296" t="n"/>
-      <c r="F12" s="296" t="n"/>
+      <c r="D12" s="296" t="n">
+        <v>175115.75</v>
+      </c>
+      <c r="E12" s="296" t="n">
+        <v>11471.54</v>
+      </c>
+      <c r="F12" s="296" t="n">
+        <v>29034.76</v>
+      </c>
       <c r="G12" s="296" t="n"/>
       <c r="H12" s="296">
         <f>SUM(C12:G12)</f>
@@ -10314,9 +10376,15 @@
       </c>
       <c r="B13" s="295" t="n"/>
       <c r="C13" s="295" t="n"/>
-      <c r="D13" s="295" t="n"/>
-      <c r="E13" s="295" t="n"/>
-      <c r="F13" s="295" t="n"/>
+      <c r="D13" s="295" t="n">
+        <v>195716.37</v>
+      </c>
+      <c r="E13" s="295" t="n">
+        <v>17764.14</v>
+      </c>
+      <c r="F13" s="295" t="n">
+        <v>32768.53</v>
+      </c>
       <c r="G13" s="295" t="n"/>
       <c r="H13" s="295">
         <f>SUM(C13:G13)</f>
@@ -10365,9 +10433,15 @@
       </c>
       <c r="B14" s="296" t="n"/>
       <c r="C14" s="296" t="n"/>
-      <c r="D14" s="296" t="n"/>
-      <c r="E14" s="296" t="n"/>
-      <c r="F14" s="296" t="n"/>
+      <c r="D14" s="296" t="n">
+        <v>1423711.55</v>
+      </c>
+      <c r="E14" s="296" t="n">
+        <v>6665.03</v>
+      </c>
+      <c r="F14" s="296" t="n">
+        <v>57278.64</v>
+      </c>
       <c r="G14" s="296" t="n"/>
       <c r="H14" s="296">
         <f>SUM(C14:G14)</f>
@@ -10420,9 +10494,15 @@
       </c>
       <c r="B15" s="295" t="n"/>
       <c r="C15" s="295" t="n"/>
-      <c r="D15" s="295" t="n"/>
-      <c r="E15" s="295" t="n"/>
-      <c r="F15" s="295" t="n"/>
+      <c r="D15" s="295" t="n">
+        <v>34640.75</v>
+      </c>
+      <c r="E15" s="295" t="n">
+        <v>50865.64</v>
+      </c>
+      <c r="F15" s="295" t="n">
+        <v>49380.99</v>
+      </c>
       <c r="G15" s="295" t="n"/>
       <c r="H15" s="295">
         <f>SUM(C15:G15)</f>
@@ -10471,9 +10551,15 @@
       </c>
       <c r="B16" s="296" t="n"/>
       <c r="C16" s="296" t="n"/>
-      <c r="D16" s="296" t="n"/>
-      <c r="E16" s="296" t="n"/>
-      <c r="F16" s="296" t="n"/>
+      <c r="D16" s="296" t="n">
+        <v>6880.18</v>
+      </c>
+      <c r="E16" s="296" t="n">
+        <v>19314.4</v>
+      </c>
+      <c r="F16" s="296" t="n">
+        <v>45822.74000000001</v>
+      </c>
       <c r="G16" s="296" t="n"/>
       <c r="H16" s="296">
         <f>SUM(C16:G16)</f>
@@ -10565,10 +10651,18 @@
       </c>
       <c r="B18" s="296" t="n"/>
       <c r="C18" s="296" t="n"/>
-      <c r="D18" s="296" t="n"/>
-      <c r="E18" s="296" t="n"/>
-      <c r="F18" s="296" t="n"/>
-      <c r="G18" s="296" t="n"/>
+      <c r="D18" s="296" t="n">
+        <v>333874.89</v>
+      </c>
+      <c r="E18" s="296" t="n">
+        <v>18778.51</v>
+      </c>
+      <c r="F18" s="296" t="n">
+        <v>29395.82</v>
+      </c>
+      <c r="G18" s="296" t="n">
+        <v>248</v>
+      </c>
       <c r="H18" s="296">
         <f>SUM(C18:G18)</f>
         <v/>
@@ -12842,10 +12936,7 @@
       <c r="C8" s="295" t="n"/>
       <c r="D8" s="295" t="n"/>
       <c r="E8" s="295" t="n"/>
-      <c r="F8" s="295">
-        <f>SUM(C8:E8)</f>
-        <v/>
-      </c>
+      <c r="F8" s="295" t="n"/>
     </row>
     <row r="9" ht="20.15" customHeight="1" s="291">
       <c r="A9" s="26" t="n">
@@ -12857,10 +12948,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="296" t="n"/>
-      <c r="F9" s="296">
-        <f>SUM(C9:E9)</f>
-        <v/>
-      </c>
+      <c r="F9" s="296" t="n"/>
     </row>
     <row r="10" ht="20.15" customHeight="1" s="291">
       <c r="A10" s="24" t="n">
@@ -12872,10 +12960,7 @@
       <c r="E10" s="295" t="n">
         <v>948.36</v>
       </c>
-      <c r="F10" s="295">
-        <f>SUM(C10:E10)</f>
-        <v/>
-      </c>
+      <c r="F10" s="295" t="n"/>
     </row>
     <row r="11" ht="20.15" customHeight="1" s="291">
       <c r="A11" s="26" t="n">
@@ -12885,10 +12970,7 @@
       <c r="C11" s="296" t="n"/>
       <c r="D11" s="296" t="n"/>
       <c r="E11" s="296" t="n"/>
-      <c r="F11" s="296">
-        <f>SUM(C11:E11)</f>
-        <v/>
-      </c>
+      <c r="F11" s="296" t="n"/>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="291">
       <c r="A12" s="24" t="n">
@@ -12908,10 +12990,7 @@
       <c r="C13" s="296" t="n"/>
       <c r="D13" s="296" t="n"/>
       <c r="E13" s="296" t="n"/>
-      <c r="F13" s="296">
-        <f>SUM(C13:E13)</f>
-        <v/>
-      </c>
+      <c r="F13" s="296" t="n"/>
     </row>
     <row r="14" ht="20.15" customHeight="1" s="291">
       <c r="A14" s="24" t="n">
@@ -12921,10 +13000,7 @@
       <c r="C14" s="295" t="n"/>
       <c r="D14" s="295" t="n"/>
       <c r="E14" s="295" t="n"/>
-      <c r="F14" s="295">
-        <f>SUM(C14:E14)</f>
-        <v/>
-      </c>
+      <c r="F14" s="295" t="n"/>
     </row>
     <row r="15" ht="20.15" customHeight="1" s="291">
       <c r="A15" s="26" t="n">
@@ -12934,10 +13010,7 @@
       <c r="C15" s="296" t="n"/>
       <c r="D15" s="296" t="n"/>
       <c r="E15" s="296" t="n"/>
-      <c r="F15" s="296">
-        <f>SUM(C15:E15)</f>
-        <v/>
-      </c>
+      <c r="F15" s="296" t="n"/>
     </row>
     <row r="16" ht="20.15" customHeight="1" s="291">
       <c r="A16" s="24" t="n">
@@ -12947,10 +13020,7 @@
       <c r="C16" s="295" t="n"/>
       <c r="D16" s="295" t="n"/>
       <c r="E16" s="295" t="n"/>
-      <c r="F16" s="295">
-        <f>SUM(C16:E16)</f>
-        <v/>
-      </c>
+      <c r="F16" s="295" t="n"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="291">
       <c r="A17" s="26" t="n">
@@ -12960,10 +13030,7 @@
       <c r="C17" s="296" t="n"/>
       <c r="D17" s="296" t="n"/>
       <c r="E17" s="296" t="n"/>
-      <c r="F17" s="296">
-        <f>SUM(C17:E17)</f>
-        <v/>
-      </c>
+      <c r="F17" s="296" t="n"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" s="291">
       <c r="A18" s="24" t="n">
@@ -12973,10 +13040,7 @@
       <c r="C18" s="295" t="n"/>
       <c r="D18" s="295" t="n"/>
       <c r="E18" s="295" t="n"/>
-      <c r="F18" s="295">
-        <f>SUM(C18:E18)</f>
-        <v/>
-      </c>
+      <c r="F18" s="295" t="n"/>
     </row>
     <row r="19" ht="20.15" customHeight="1" s="291">
       <c r="A19" s="26" t="n">
@@ -12986,10 +13050,7 @@
       <c r="C19" s="296" t="n"/>
       <c r="D19" s="296" t="n"/>
       <c r="E19" s="296" t="n"/>
-      <c r="F19" s="296">
-        <f>SUM(C19:E19)</f>
-        <v/>
-      </c>
+      <c r="F19" s="296" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="291">
       <c r="A20" s="24" t="n">
@@ -12999,10 +13060,7 @@
       <c r="C20" s="295" t="n"/>
       <c r="D20" s="295" t="n"/>
       <c r="E20" s="295" t="n"/>
-      <c r="F20" s="295">
-        <f>SUM(C20:E20)</f>
-        <v/>
-      </c>
+      <c r="F20" s="295" t="n"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" s="291">
       <c r="A21" s="26" t="n">
@@ -13012,10 +13070,7 @@
       <c r="C21" s="296" t="n"/>
       <c r="D21" s="296" t="n"/>
       <c r="E21" s="296" t="n"/>
-      <c r="F21" s="296">
-        <f>SUM(C21:E21)</f>
-        <v/>
-      </c>
+      <c r="F21" s="296" t="n"/>
     </row>
     <row r="22" ht="20.15" customHeight="1" s="291">
       <c r="A22" s="24" t="n">
@@ -13025,10 +13080,7 @@
       <c r="C22" s="295" t="n"/>
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
-      <c r="F22" s="295">
-        <f>SUM(C22:E22)</f>
-        <v/>
-      </c>
+      <c r="F22" s="295" t="n"/>
     </row>
     <row r="23" ht="14.5" customHeight="1" s="291">
       <c r="A23" s="26" t="n">
@@ -13038,10 +13090,7 @@
       <c r="C23" s="296" t="n"/>
       <c r="D23" s="296" t="n"/>
       <c r="E23" s="296" t="n"/>
-      <c r="F23" s="296">
-        <f>SUM(C23:E23)</f>
-        <v/>
-      </c>
+      <c r="F23" s="296" t="n"/>
     </row>
     <row r="24" ht="14.5" customHeight="1" s="291">
       <c r="A24" s="24" t="n">
@@ -13051,10 +13100,7 @@
       <c r="C24" s="295" t="n"/>
       <c r="D24" s="295" t="n"/>
       <c r="E24" s="295" t="n"/>
-      <c r="F24" s="295">
-        <f>SUM(C24:E24)</f>
-        <v/>
-      </c>
+      <c r="F24" s="295" t="n"/>
     </row>
     <row r="25" ht="14.5" customHeight="1" s="291">
       <c r="A25" s="26" t="n">
@@ -13064,10 +13110,7 @@
       <c r="C25" s="296" t="n"/>
       <c r="D25" s="296" t="n"/>
       <c r="E25" s="296" t="n"/>
-      <c r="F25" s="296">
-        <f>SUM(C25:E25)</f>
-        <v/>
-      </c>
+      <c r="F25" s="296" t="n"/>
     </row>
     <row r="26" ht="14.5" customHeight="1" s="291">
       <c r="A26" s="24" t="n">
@@ -13077,10 +13120,7 @@
       <c r="C26" s="295" t="n"/>
       <c r="D26" s="295" t="n"/>
       <c r="E26" s="295" t="n"/>
-      <c r="F26" s="295">
-        <f>SUM(C26:E26)</f>
-        <v/>
-      </c>
+      <c r="F26" s="295" t="n"/>
     </row>
     <row r="27" ht="14.5" customHeight="1" s="291">
       <c r="A27" s="26" t="n">
@@ -13090,10 +13130,7 @@
       <c r="C27" s="296" t="n"/>
       <c r="D27" s="296" t="n"/>
       <c r="E27" s="296" t="n"/>
-      <c r="F27" s="296">
-        <f>SUM(C27:E27)</f>
-        <v/>
-      </c>
+      <c r="F27" s="296" t="n"/>
     </row>
     <row r="28" ht="14.5" customHeight="1" s="291">
       <c r="A28" s="24" t="n">
@@ -13103,10 +13140,7 @@
       <c r="C28" s="295" t="n"/>
       <c r="D28" s="295" t="n"/>
       <c r="E28" s="295" t="n"/>
-      <c r="F28" s="295">
-        <f>SUM(C28:E28)</f>
-        <v/>
-      </c>
+      <c r="F28" s="295" t="n"/>
     </row>
     <row r="29" ht="14.5" customHeight="1" s="291">
       <c r="A29" s="26" t="n">
@@ -13116,10 +13150,7 @@
       <c r="C29" s="296" t="n"/>
       <c r="D29" s="296" t="n"/>
       <c r="E29" s="296" t="n"/>
-      <c r="F29" s="296">
-        <f>SUM(C29:E29)</f>
-        <v/>
-      </c>
+      <c r="F29" s="296" t="n"/>
     </row>
     <row r="30" ht="14.5" customHeight="1" s="291">
       <c r="A30" s="24" t="n">
@@ -13129,10 +13160,7 @@
       <c r="C30" s="295" t="n"/>
       <c r="D30" s="295" t="n"/>
       <c r="E30" s="295" t="n"/>
-      <c r="F30" s="295">
-        <f>SUM(C30:E30)</f>
-        <v/>
-      </c>
+      <c r="F30" s="295" t="n"/>
     </row>
     <row r="31" ht="14.5" customHeight="1" s="291">
       <c r="A31" s="26" t="n">
@@ -13142,10 +13170,7 @@
       <c r="C31" s="296" t="n"/>
       <c r="D31" s="296" t="n"/>
       <c r="E31" s="296" t="n"/>
-      <c r="F31" s="296">
-        <f>SUM(C31:E31)</f>
-        <v/>
-      </c>
+      <c r="F31" s="296" t="n"/>
     </row>
     <row r="32" ht="14.5" customHeight="1" s="291">
       <c r="A32" s="24" t="n">
@@ -13155,10 +13180,7 @@
       <c r="C32" s="295" t="n"/>
       <c r="D32" s="295" t="n"/>
       <c r="E32" s="295" t="n"/>
-      <c r="F32" s="295">
-        <f>SUM(C32:E32)</f>
-        <v/>
-      </c>
+      <c r="F32" s="295" t="n"/>
     </row>
     <row r="33" ht="14.5" customHeight="1" s="291">
       <c r="A33" s="28" t="inlineStr">
@@ -13575,10 +13597,7 @@
       <c r="F8" s="295" t="n">
         <v>1062</v>
       </c>
-      <c r="G8" s="295">
-        <f>SUM(C8:F8)</f>
-        <v/>
-      </c>
+      <c r="G8" s="295" t="n"/>
     </row>
     <row r="9" ht="20.15" customHeight="1" s="291">
       <c r="A9" s="26" t="n">
@@ -13591,10 +13610,7 @@
       <c r="F9" s="296" t="n">
         <v>4822.75</v>
       </c>
-      <c r="G9" s="296">
-        <f>SUM(C9:F9)</f>
-        <v/>
-      </c>
+      <c r="G9" s="296" t="n"/>
     </row>
     <row r="10" ht="20.15" customHeight="1" s="291">
       <c r="A10" s="24" t="n">
@@ -13617,11 +13633,10 @@
       <c r="C11" s="296" t="n"/>
       <c r="D11" s="296" t="n"/>
       <c r="E11" s="296" t="n"/>
-      <c r="F11" s="296" t="n"/>
-      <c r="G11" s="296">
-        <f>SUM(C11:F11)</f>
-        <v/>
-      </c>
+      <c r="F11" s="296" t="n">
+        <v>497.66</v>
+      </c>
+      <c r="G11" s="296" t="n"/>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="291">
       <c r="A12" s="24" t="n">
@@ -13632,10 +13647,7 @@
       <c r="D12" s="295" t="n"/>
       <c r="E12" s="295" t="n"/>
       <c r="F12" s="295" t="n"/>
-      <c r="G12" s="295">
-        <f>SUM(C12:F12)</f>
-        <v/>
-      </c>
+      <c r="G12" s="295" t="n"/>
     </row>
     <row r="13" ht="20.15" customHeight="1" s="291">
       <c r="A13" s="26" t="n">
@@ -13646,10 +13658,7 @@
       <c r="D13" s="296" t="n"/>
       <c r="E13" s="296" t="n"/>
       <c r="F13" s="296" t="n"/>
-      <c r="G13" s="296">
-        <f>SUM(C13:F13)</f>
-        <v/>
-      </c>
+      <c r="G13" s="296" t="n"/>
     </row>
     <row r="14" ht="20.15" customHeight="1" s="291">
       <c r="A14" s="24" t="n">
@@ -13660,10 +13669,7 @@
       <c r="D14" s="295" t="n"/>
       <c r="E14" s="295" t="n"/>
       <c r="F14" s="295" t="n"/>
-      <c r="G14" s="295">
-        <f>SUM(C14:F14)</f>
-        <v/>
-      </c>
+      <c r="G14" s="295" t="n"/>
     </row>
     <row r="15" ht="20.15" customHeight="1" s="291">
       <c r="A15" s="26" t="n">
@@ -13674,10 +13680,7 @@
       <c r="D15" s="296" t="n"/>
       <c r="E15" s="296" t="n"/>
       <c r="F15" s="296" t="n"/>
-      <c r="G15" s="296">
-        <f>SUM(C15:F15)</f>
-        <v/>
-      </c>
+      <c r="G15" s="296" t="n"/>
     </row>
     <row r="16" ht="20.15" customHeight="1" s="291">
       <c r="A16" s="24" t="n">
@@ -13688,10 +13691,7 @@
       <c r="D16" s="295" t="n"/>
       <c r="E16" s="295" t="n"/>
       <c r="F16" s="295" t="n"/>
-      <c r="G16" s="295">
-        <f>SUM(C16:F16)</f>
-        <v/>
-      </c>
+      <c r="G16" s="295" t="n"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="291">
       <c r="A17" s="26" t="n">
@@ -13702,10 +13702,7 @@
       <c r="D17" s="296" t="n"/>
       <c r="E17" s="296" t="n"/>
       <c r="F17" s="296" t="n"/>
-      <c r="G17" s="296">
-        <f>SUM(C17:F17)</f>
-        <v/>
-      </c>
+      <c r="G17" s="296" t="n"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" s="291">
       <c r="A18" s="24" t="n">
@@ -13716,10 +13713,7 @@
       <c r="D18" s="295" t="n"/>
       <c r="E18" s="295" t="n"/>
       <c r="F18" s="295" t="n"/>
-      <c r="G18" s="295">
-        <f>SUM(C18:F18)</f>
-        <v/>
-      </c>
+      <c r="G18" s="295" t="n"/>
     </row>
     <row r="19" ht="20.15" customHeight="1" s="291">
       <c r="A19" s="26" t="n">
@@ -13730,10 +13724,7 @@
       <c r="D19" s="296" t="n"/>
       <c r="E19" s="296" t="n"/>
       <c r="F19" s="296" t="n"/>
-      <c r="G19" s="296">
-        <f>SUM(C19:F19)</f>
-        <v/>
-      </c>
+      <c r="G19" s="296" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="291">
       <c r="A20" s="24" t="n">
@@ -13744,10 +13735,7 @@
       <c r="D20" s="295" t="n"/>
       <c r="E20" s="295" t="n"/>
       <c r="F20" s="295" t="n"/>
-      <c r="G20" s="295">
-        <f>SUM(C20:F20)</f>
-        <v/>
-      </c>
+      <c r="G20" s="295" t="n"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" s="291">
       <c r="A21" s="26" t="n">
@@ -13758,10 +13746,7 @@
       <c r="D21" s="296" t="n"/>
       <c r="E21" s="296" t="n"/>
       <c r="F21" s="296" t="n"/>
-      <c r="G21" s="296">
-        <f>SUM(C21:F21)</f>
-        <v/>
-      </c>
+      <c r="G21" s="296" t="n"/>
     </row>
     <row r="22" ht="20.15" customHeight="1" s="291">
       <c r="A22" s="24" t="n">
@@ -13772,10 +13757,7 @@
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
       <c r="F22" s="295" t="n"/>
-      <c r="G22" s="295">
-        <f>SUM(C22:F22)</f>
-        <v/>
-      </c>
+      <c r="G22" s="295" t="n"/>
     </row>
     <row r="23" ht="14.5" customHeight="1" s="291">
       <c r="A23" s="26" t="n">
@@ -13786,10 +13768,7 @@
       <c r="D23" s="296" t="n"/>
       <c r="E23" s="296" t="n"/>
       <c r="F23" s="296" t="n"/>
-      <c r="G23" s="296">
-        <f>SUM(C23:F23)</f>
-        <v/>
-      </c>
+      <c r="G23" s="296" t="n"/>
     </row>
     <row r="24" ht="14.5" customHeight="1" s="291">
       <c r="A24" s="24" t="n">
@@ -13800,10 +13779,7 @@
       <c r="D24" s="295" t="n"/>
       <c r="E24" s="295" t="n"/>
       <c r="F24" s="295" t="n"/>
-      <c r="G24" s="295">
-        <f>SUM(C24:F24)</f>
-        <v/>
-      </c>
+      <c r="G24" s="295" t="n"/>
     </row>
     <row r="25" ht="14.5" customHeight="1" s="291">
       <c r="A25" s="28" t="inlineStr">
@@ -14280,10 +14256,7 @@
       <c r="F8" s="295" t="n">
         <v>849.6</v>
       </c>
-      <c r="G8" s="295">
-        <f>SUM(C8:F8)</f>
-        <v/>
-      </c>
+      <c r="G8" s="295" t="n"/>
     </row>
     <row r="9" ht="20.15" customHeight="1" s="291">
       <c r="A9" s="26" t="n">
@@ -14296,10 +14269,7 @@
       <c r="F9" s="296" t="n">
         <v>2531.94</v>
       </c>
-      <c r="G9" s="296">
-        <f>SUM(C9:F9)</f>
-        <v/>
-      </c>
+      <c r="G9" s="296" t="n"/>
     </row>
     <row r="10" ht="20.15" customHeight="1" s="291">
       <c r="A10" s="24" t="n">
@@ -14322,11 +14292,10 @@
       <c r="C11" s="296" t="n"/>
       <c r="D11" s="296" t="n"/>
       <c r="E11" s="296" t="n"/>
-      <c r="F11" s="296" t="n"/>
-      <c r="G11" s="296">
-        <f>SUM(C11:F11)</f>
-        <v/>
-      </c>
+      <c r="F11" s="296" t="n">
+        <v>3792.81</v>
+      </c>
+      <c r="G11" s="296" t="n"/>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="291">
       <c r="A12" s="24" t="n">
@@ -14337,10 +14306,7 @@
       <c r="D12" s="295" t="n"/>
       <c r="E12" s="295" t="n"/>
       <c r="F12" s="295" t="n"/>
-      <c r="G12" s="295">
-        <f>SUM(C12:F12)</f>
-        <v/>
-      </c>
+      <c r="G12" s="295" t="n"/>
     </row>
     <row r="13" ht="20.15" customHeight="1" s="291">
       <c r="A13" s="26" t="n">
@@ -14351,10 +14317,7 @@
       <c r="D13" s="296" t="n"/>
       <c r="E13" s="296" t="n"/>
       <c r="F13" s="296" t="n"/>
-      <c r="G13" s="296">
-        <f>SUM(C13:F13)</f>
-        <v/>
-      </c>
+      <c r="G13" s="296" t="n"/>
     </row>
     <row r="14" ht="20.15" customHeight="1" s="291">
       <c r="A14" s="24" t="n">
@@ -14365,10 +14328,7 @@
       <c r="D14" s="295" t="n"/>
       <c r="E14" s="295" t="n"/>
       <c r="F14" s="295" t="n"/>
-      <c r="G14" s="295">
-        <f>SUM(C14:F14)</f>
-        <v/>
-      </c>
+      <c r="G14" s="295" t="n"/>
     </row>
     <row r="15" ht="20.15" customHeight="1" s="291">
       <c r="A15" s="26" t="n">
@@ -14379,10 +14339,7 @@
       <c r="D15" s="296" t="n"/>
       <c r="E15" s="296" t="n"/>
       <c r="F15" s="296" t="n"/>
-      <c r="G15" s="296">
-        <f>SUM(C15:F15)</f>
-        <v/>
-      </c>
+      <c r="G15" s="296" t="n"/>
     </row>
     <row r="16" ht="20.15" customHeight="1" s="291">
       <c r="A16" s="24" t="n">
@@ -14393,10 +14350,7 @@
       <c r="D16" s="295" t="n"/>
       <c r="E16" s="295" t="n"/>
       <c r="F16" s="295" t="n"/>
-      <c r="G16" s="295">
-        <f>SUM(C16:F16)</f>
-        <v/>
-      </c>
+      <c r="G16" s="295" t="n"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="291">
       <c r="A17" s="26" t="n">
@@ -14407,10 +14361,7 @@
       <c r="D17" s="296" t="n"/>
       <c r="E17" s="296" t="n"/>
       <c r="F17" s="296" t="n"/>
-      <c r="G17" s="296">
-        <f>SUM(C17:F17)</f>
-        <v/>
-      </c>
+      <c r="G17" s="296" t="n"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" s="291">
       <c r="A18" s="24" t="n">
@@ -14421,10 +14372,7 @@
       <c r="D18" s="295" t="n"/>
       <c r="E18" s="295" t="n"/>
       <c r="F18" s="295" t="n"/>
-      <c r="G18" s="295">
-        <f>SUM(C18:F18)</f>
-        <v/>
-      </c>
+      <c r="G18" s="295" t="n"/>
     </row>
     <row r="19" ht="20.15" customHeight="1" s="291">
       <c r="A19" s="26" t="n">
@@ -14435,10 +14383,7 @@
       <c r="D19" s="296" t="n"/>
       <c r="E19" s="296" t="n"/>
       <c r="F19" s="296" t="n"/>
-      <c r="G19" s="296">
-        <f>SUM(C19:F19)</f>
-        <v/>
-      </c>
+      <c r="G19" s="296" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="291">
       <c r="A20" s="24" t="n">
@@ -14449,10 +14394,7 @@
       <c r="D20" s="295" t="n"/>
       <c r="E20" s="295" t="n"/>
       <c r="F20" s="295" t="n"/>
-      <c r="G20" s="295">
-        <f>SUM(C20:F20)</f>
-        <v/>
-      </c>
+      <c r="G20" s="295" t="n"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" s="291">
       <c r="A21" s="26" t="n">
@@ -14463,10 +14405,7 @@
       <c r="D21" s="296" t="n"/>
       <c r="E21" s="296" t="n"/>
       <c r="F21" s="296" t="n"/>
-      <c r="G21" s="296">
-        <f>SUM(C21:F21)</f>
-        <v/>
-      </c>
+      <c r="G21" s="296" t="n"/>
     </row>
     <row r="22" ht="20.15" customHeight="1" s="291">
       <c r="A22" s="24" t="n">
@@ -14477,10 +14416,7 @@
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
       <c r="F22" s="295" t="n"/>
-      <c r="G22" s="295">
-        <f>SUM(C22:F22)</f>
-        <v/>
-      </c>
+      <c r="G22" s="295" t="n"/>
     </row>
     <row r="23" ht="14.5" customHeight="1" s="291">
       <c r="A23" s="26" t="n">
@@ -14491,10 +14427,7 @@
       <c r="D23" s="296" t="n"/>
       <c r="E23" s="296" t="n"/>
       <c r="F23" s="296" t="n"/>
-      <c r="G23" s="296">
-        <f>SUM(C23:F23)</f>
-        <v/>
-      </c>
+      <c r="G23" s="296" t="n"/>
     </row>
     <row r="24" ht="14.5" customHeight="1" s="291">
       <c r="A24" s="28" t="inlineStr">
@@ -15219,10 +15152,7 @@
       <c r="D8" s="295" t="n"/>
       <c r="E8" s="295" t="n"/>
       <c r="F8" s="295" t="n"/>
-      <c r="G8" s="295">
-        <f>SUM(C8:F8)</f>
-        <v/>
-      </c>
+      <c r="G8" s="295" t="n"/>
     </row>
     <row r="9" ht="20.15" customHeight="1" s="291">
       <c r="A9" s="26" t="n">
@@ -15246,10 +15176,7 @@
       <c r="D10" s="295" t="n"/>
       <c r="E10" s="295" t="n"/>
       <c r="F10" s="295" t="n"/>
-      <c r="G10" s="295">
-        <f>SUM(C10:F10)</f>
-        <v/>
-      </c>
+      <c r="G10" s="295" t="n"/>
     </row>
     <row r="11" ht="20.15" customHeight="1" s="291">
       <c r="A11" s="26" t="n">
@@ -15260,10 +15187,7 @@
       <c r="D11" s="296" t="n"/>
       <c r="E11" s="296" t="n"/>
       <c r="F11" s="296" t="n"/>
-      <c r="G11" s="296">
-        <f>SUM(C11:F11)</f>
-        <v/>
-      </c>
+      <c r="G11" s="296" t="n"/>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="291">
       <c r="A12" s="24" t="n">
@@ -15274,10 +15198,7 @@
       <c r="D12" s="295" t="n"/>
       <c r="E12" s="295" t="n"/>
       <c r="F12" s="295" t="n"/>
-      <c r="G12" s="295">
-        <f>SUM(C12:F12)</f>
-        <v/>
-      </c>
+      <c r="G12" s="295" t="n"/>
     </row>
     <row r="13" ht="20.15" customHeight="1" s="291">
       <c r="A13" s="26" t="n">
@@ -15288,10 +15209,7 @@
       <c r="D13" s="296" t="n"/>
       <c r="E13" s="296" t="n"/>
       <c r="F13" s="296" t="n"/>
-      <c r="G13" s="296">
-        <f>SUM(C13:F13)</f>
-        <v/>
-      </c>
+      <c r="G13" s="296" t="n"/>
     </row>
     <row r="14" ht="20.15" customHeight="1" s="291">
       <c r="A14" s="24" t="n">
@@ -15302,10 +15220,7 @@
       <c r="D14" s="295" t="n"/>
       <c r="E14" s="295" t="n"/>
       <c r="F14" s="295" t="n"/>
-      <c r="G14" s="295">
-        <f>SUM(C14:F14)</f>
-        <v/>
-      </c>
+      <c r="G14" s="295" t="n"/>
     </row>
     <row r="15" ht="20.15" customHeight="1" s="291">
       <c r="A15" s="26" t="n">
@@ -15316,10 +15231,7 @@
       <c r="D15" s="296" t="n"/>
       <c r="E15" s="296" t="n"/>
       <c r="F15" s="296" t="n"/>
-      <c r="G15" s="296">
-        <f>SUM(C15:F15)</f>
-        <v/>
-      </c>
+      <c r="G15" s="296" t="n"/>
     </row>
     <row r="16" ht="20.15" customHeight="1" s="291">
       <c r="A16" s="24" t="n">
@@ -15330,10 +15242,7 @@
       <c r="D16" s="295" t="n"/>
       <c r="E16" s="295" t="n"/>
       <c r="F16" s="295" t="n"/>
-      <c r="G16" s="295">
-        <f>SUM(C16:F16)</f>
-        <v/>
-      </c>
+      <c r="G16" s="295" t="n"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="291">
       <c r="A17" s="26" t="n">
@@ -15344,10 +15253,7 @@
       <c r="D17" s="296" t="n"/>
       <c r="E17" s="296" t="n"/>
       <c r="F17" s="296" t="n"/>
-      <c r="G17" s="296">
-        <f>SUM(C17:F17)</f>
-        <v/>
-      </c>
+      <c r="G17" s="296" t="n"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" s="291">
       <c r="A18" s="24" t="n">
@@ -15358,10 +15264,7 @@
       <c r="D18" s="295" t="n"/>
       <c r="E18" s="295" t="n"/>
       <c r="F18" s="295" t="n"/>
-      <c r="G18" s="295">
-        <f>SUM(C18:F18)</f>
-        <v/>
-      </c>
+      <c r="G18" s="295" t="n"/>
     </row>
     <row r="19" ht="20.15" customHeight="1" s="291">
       <c r="A19" s="26" t="n">
@@ -15372,10 +15275,7 @@
       <c r="D19" s="296" t="n"/>
       <c r="E19" s="296" t="n"/>
       <c r="F19" s="296" t="n"/>
-      <c r="G19" s="296">
-        <f>SUM(C19:F19)</f>
-        <v/>
-      </c>
+      <c r="G19" s="296" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="291">
       <c r="A20" s="24" t="n">
@@ -15386,10 +15286,7 @@
       <c r="D20" s="295" t="n"/>
       <c r="E20" s="295" t="n"/>
       <c r="F20" s="295" t="n"/>
-      <c r="G20" s="295">
-        <f>SUM(C20:F20)</f>
-        <v/>
-      </c>
+      <c r="G20" s="295" t="n"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" s="291">
       <c r="A21" s="26" t="n">
@@ -15400,10 +15297,7 @@
       <c r="D21" s="296" t="n"/>
       <c r="E21" s="296" t="n"/>
       <c r="F21" s="296" t="n"/>
-      <c r="G21" s="296">
-        <f>SUM(C21:F21)</f>
-        <v/>
-      </c>
+      <c r="G21" s="296" t="n"/>
     </row>
     <row r="22" ht="20.15" customHeight="1" s="291">
       <c r="A22" s="24" t="n">
@@ -15414,10 +15308,7 @@
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
       <c r="F22" s="295" t="n"/>
-      <c r="G22" s="295">
-        <f>SUM(C22:F22)</f>
-        <v/>
-      </c>
+      <c r="G22" s="295" t="n"/>
     </row>
     <row r="23" ht="14.5" customHeight="1" s="291">
       <c r="A23" s="26" t="n">
@@ -15428,10 +15319,7 @@
       <c r="D23" s="296" t="n"/>
       <c r="E23" s="296" t="n"/>
       <c r="F23" s="296" t="n"/>
-      <c r="G23" s="296">
-        <f>SUM(C23:F23)</f>
-        <v/>
-      </c>
+      <c r="G23" s="296" t="n"/>
     </row>
     <row r="24" ht="14.5" customHeight="1" s="291">
       <c r="A24" s="28" t="inlineStr">
@@ -16021,10 +15909,7 @@
       <c r="C8" s="295" t="n"/>
       <c r="D8" s="295" t="n"/>
       <c r="E8" s="295" t="n"/>
-      <c r="F8" s="295">
-        <f>SUM(C8:E8)</f>
-        <v/>
-      </c>
+      <c r="F8" s="295" t="n"/>
     </row>
     <row r="9" ht="20.15" customHeight="1" s="291">
       <c r="A9" s="26" t="n">
@@ -16044,10 +15929,7 @@
       <c r="C10" s="295" t="n"/>
       <c r="D10" s="295" t="n"/>
       <c r="E10" s="295" t="n"/>
-      <c r="F10" s="295">
-        <f>SUM(C10:E10)</f>
-        <v/>
-      </c>
+      <c r="F10" s="295" t="n"/>
     </row>
     <row r="11" ht="20.15" customHeight="1" s="291">
       <c r="A11" s="26" t="n">
@@ -16057,10 +15939,7 @@
       <c r="C11" s="296" t="n"/>
       <c r="D11" s="296" t="n"/>
       <c r="E11" s="296" t="n"/>
-      <c r="F11" s="296">
-        <f>SUM(C11:E11)</f>
-        <v/>
-      </c>
+      <c r="F11" s="296" t="n"/>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="291">
       <c r="A12" s="24" t="n">
@@ -16070,10 +15949,7 @@
       <c r="C12" s="295" t="n"/>
       <c r="D12" s="295" t="n"/>
       <c r="E12" s="295" t="n"/>
-      <c r="F12" s="295">
-        <f>SUM(C12:E12)</f>
-        <v/>
-      </c>
+      <c r="F12" s="295" t="n"/>
     </row>
     <row r="13" ht="20.15" customHeight="1" s="291">
       <c r="A13" s="26" t="n">
@@ -16083,10 +15959,7 @@
       <c r="C13" s="296" t="n"/>
       <c r="D13" s="296" t="n"/>
       <c r="E13" s="296" t="n"/>
-      <c r="F13" s="296">
-        <f>SUM(C13:E13)</f>
-        <v/>
-      </c>
+      <c r="F13" s="296" t="n"/>
     </row>
     <row r="14" ht="20.15" customHeight="1" s="291">
       <c r="A14" s="24" t="n">
@@ -16096,10 +15969,7 @@
       <c r="C14" s="295" t="n"/>
       <c r="D14" s="295" t="n"/>
       <c r="E14" s="295" t="n"/>
-      <c r="F14" s="295">
-        <f>SUM(C14:E14)</f>
-        <v/>
-      </c>
+      <c r="F14" s="295" t="n"/>
     </row>
     <row r="15" ht="20.15" customHeight="1" s="291">
       <c r="A15" s="26" t="n">
@@ -16109,10 +15979,7 @@
       <c r="C15" s="296" t="n"/>
       <c r="D15" s="296" t="n"/>
       <c r="E15" s="296" t="n"/>
-      <c r="F15" s="296">
-        <f>SUM(C15:E15)</f>
-        <v/>
-      </c>
+      <c r="F15" s="296" t="n"/>
     </row>
     <row r="16" ht="20.15" customHeight="1" s="291">
       <c r="A16" s="24" t="n">
@@ -16122,10 +15989,7 @@
       <c r="C16" s="295" t="n"/>
       <c r="D16" s="295" t="n"/>
       <c r="E16" s="295" t="n"/>
-      <c r="F16" s="295">
-        <f>SUM(C16:E16)</f>
-        <v/>
-      </c>
+      <c r="F16" s="295" t="n"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="291">
       <c r="A17" s="26" t="n">
@@ -16135,10 +15999,7 @@
       <c r="C17" s="296" t="n"/>
       <c r="D17" s="296" t="n"/>
       <c r="E17" s="296" t="n"/>
-      <c r="F17" s="296">
-        <f>SUM(C17:E17)</f>
-        <v/>
-      </c>
+      <c r="F17" s="296" t="n"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" s="291">
       <c r="A18" s="24" t="n">
@@ -16148,10 +16009,7 @@
       <c r="C18" s="295" t="n"/>
       <c r="D18" s="295" t="n"/>
       <c r="E18" s="295" t="n"/>
-      <c r="F18" s="295">
-        <f>SUM(C18:E18)</f>
-        <v/>
-      </c>
+      <c r="F18" s="295" t="n"/>
     </row>
     <row r="19" ht="20.15" customHeight="1" s="291">
       <c r="A19" s="26" t="n">
@@ -16161,10 +16019,7 @@
       <c r="C19" s="296" t="n"/>
       <c r="D19" s="296" t="n"/>
       <c r="E19" s="296" t="n"/>
-      <c r="F19" s="296">
-        <f>SUM(C19:E19)</f>
-        <v/>
-      </c>
+      <c r="F19" s="296" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="291">
       <c r="A20" s="24" t="n">
@@ -16174,10 +16029,7 @@
       <c r="C20" s="295" t="n"/>
       <c r="D20" s="295" t="n"/>
       <c r="E20" s="295" t="n"/>
-      <c r="F20" s="295">
-        <f>SUM(C20:E20)</f>
-        <v/>
-      </c>
+      <c r="F20" s="295" t="n"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" s="291">
       <c r="A21" s="26" t="n">
@@ -16187,10 +16039,7 @@
       <c r="C21" s="296" t="n"/>
       <c r="D21" s="296" t="n"/>
       <c r="E21" s="296" t="n"/>
-      <c r="F21" s="296">
-        <f>SUM(C21:E21)</f>
-        <v/>
-      </c>
+      <c r="F21" s="296" t="n"/>
     </row>
     <row r="22" ht="20.15" customHeight="1" s="291">
       <c r="A22" s="24" t="n">
@@ -16200,10 +16049,7 @@
       <c r="C22" s="295" t="n"/>
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
-      <c r="F22" s="295">
-        <f>SUM(C22:E22)</f>
-        <v/>
-      </c>
+      <c r="F22" s="295" t="n"/>
     </row>
     <row r="23" ht="14.5" customHeight="1" s="291">
       <c r="A23" s="26" t="n">
@@ -16213,10 +16059,7 @@
       <c r="C23" s="296" t="n"/>
       <c r="D23" s="296" t="n"/>
       <c r="E23" s="296" t="n"/>
-      <c r="F23" s="296">
-        <f>SUM(C23:E23)</f>
-        <v/>
-      </c>
+      <c r="F23" s="296" t="n"/>
     </row>
     <row r="24" ht="14.5" customHeight="1" s="291">
       <c r="A24" s="28" t="inlineStr">
@@ -16663,10 +16506,7 @@
       <c r="D10" s="295" t="n"/>
       <c r="E10" s="295" t="n"/>
       <c r="F10" s="295" t="n"/>
-      <c r="G10" s="295">
-        <f>SUM(C10:F10)</f>
-        <v/>
-      </c>
+      <c r="G10" s="295" t="n"/>
     </row>
     <row r="11" ht="20.15" customHeight="1" s="291">
       <c r="A11" s="26" t="n">
@@ -16677,10 +16517,7 @@
       <c r="D11" s="296" t="n"/>
       <c r="E11" s="296" t="n"/>
       <c r="F11" s="296" t="n"/>
-      <c r="G11" s="296">
-        <f>SUM(C11:F11)</f>
-        <v/>
-      </c>
+      <c r="G11" s="296" t="n"/>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="291">
       <c r="A12" s="24" t="n">
@@ -16691,10 +16528,7 @@
       <c r="D12" s="295" t="n"/>
       <c r="E12" s="295" t="n"/>
       <c r="F12" s="295" t="n"/>
-      <c r="G12" s="295">
-        <f>SUM(C12:F12)</f>
-        <v/>
-      </c>
+      <c r="G12" s="295" t="n"/>
     </row>
     <row r="13" ht="20.15" customHeight="1" s="291">
       <c r="A13" s="26" t="n">
@@ -16705,10 +16539,7 @@
       <c r="D13" s="296" t="n"/>
       <c r="E13" s="296" t="n"/>
       <c r="F13" s="296" t="n"/>
-      <c r="G13" s="296">
-        <f>SUM(C13:F13)</f>
-        <v/>
-      </c>
+      <c r="G13" s="296" t="n"/>
     </row>
     <row r="14" ht="20.15" customHeight="1" s="291">
       <c r="A14" s="24" t="n">
@@ -16719,10 +16550,7 @@
       <c r="D14" s="295" t="n"/>
       <c r="E14" s="295" t="n"/>
       <c r="F14" s="295" t="n"/>
-      <c r="G14" s="295">
-        <f>SUM(C14:F14)</f>
-        <v/>
-      </c>
+      <c r="G14" s="295" t="n"/>
     </row>
     <row r="15" ht="20.15" customHeight="1" s="291">
       <c r="A15" s="26" t="n">
@@ -16733,10 +16561,7 @@
       <c r="D15" s="296" t="n"/>
       <c r="E15" s="296" t="n"/>
       <c r="F15" s="296" t="n"/>
-      <c r="G15" s="296">
-        <f>SUM(C15:F15)</f>
-        <v/>
-      </c>
+      <c r="G15" s="296" t="n"/>
     </row>
     <row r="16" ht="20.15" customHeight="1" s="291">
       <c r="A16" s="24" t="n">
@@ -16747,10 +16572,7 @@
       <c r="D16" s="295" t="n"/>
       <c r="E16" s="295" t="n"/>
       <c r="F16" s="295" t="n"/>
-      <c r="G16" s="295">
-        <f>SUM(C16:F16)</f>
-        <v/>
-      </c>
+      <c r="G16" s="295" t="n"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="291">
       <c r="A17" s="26" t="n">
@@ -16761,10 +16583,7 @@
       <c r="D17" s="296" t="n"/>
       <c r="E17" s="296" t="n"/>
       <c r="F17" s="296" t="n"/>
-      <c r="G17" s="296">
-        <f>SUM(C17:F17)</f>
-        <v/>
-      </c>
+      <c r="G17" s="296" t="n"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" s="291">
       <c r="A18" s="24" t="n">
@@ -16775,10 +16594,7 @@
       <c r="D18" s="295" t="n"/>
       <c r="E18" s="295" t="n"/>
       <c r="F18" s="295" t="n"/>
-      <c r="G18" s="295">
-        <f>SUM(C18:F18)</f>
-        <v/>
-      </c>
+      <c r="G18" s="295" t="n"/>
     </row>
     <row r="19" ht="20.15" customHeight="1" s="291">
       <c r="A19" s="26" t="n">
@@ -16789,10 +16605,7 @@
       <c r="D19" s="296" t="n"/>
       <c r="E19" s="296" t="n"/>
       <c r="F19" s="296" t="n"/>
-      <c r="G19" s="296">
-        <f>SUM(C19:F19)</f>
-        <v/>
-      </c>
+      <c r="G19" s="296" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="291">
       <c r="A20" s="24" t="n">
@@ -16803,10 +16616,7 @@
       <c r="D20" s="295" t="n"/>
       <c r="E20" s="295" t="n"/>
       <c r="F20" s="295" t="n"/>
-      <c r="G20" s="295">
-        <f>SUM(C20:F20)</f>
-        <v/>
-      </c>
+      <c r="G20" s="295" t="n"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" s="291">
       <c r="A21" s="26" t="n">
@@ -16817,10 +16627,7 @@
       <c r="D21" s="296" t="n"/>
       <c r="E21" s="296" t="n"/>
       <c r="F21" s="296" t="n"/>
-      <c r="G21" s="296">
-        <f>SUM(C21:F21)</f>
-        <v/>
-      </c>
+      <c r="G21" s="296" t="n"/>
     </row>
     <row r="22" ht="20.15" customHeight="1" s="291">
       <c r="A22" s="24" t="n">
@@ -16831,10 +16638,7 @@
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
       <c r="F22" s="295" t="n"/>
-      <c r="G22" s="295">
-        <f>SUM(C22:F22)</f>
-        <v/>
-      </c>
+      <c r="G22" s="295" t="n"/>
     </row>
     <row r="23" ht="14.5" customHeight="1" s="291">
       <c r="A23" s="26" t="n">
@@ -16845,10 +16649,7 @@
       <c r="D23" s="296" t="n"/>
       <c r="E23" s="296" t="n"/>
       <c r="F23" s="296" t="n"/>
-      <c r="G23" s="296">
-        <f>SUM(C23:F23)</f>
-        <v/>
-      </c>
+      <c r="G23" s="296" t="n"/>
     </row>
     <row r="24" ht="14.5" customHeight="1" s="291">
       <c r="A24" s="28" t="inlineStr">
@@ -17292,10 +17093,7 @@
       <c r="C9" s="295" t="n"/>
       <c r="D9" s="295" t="n"/>
       <c r="E9" s="295" t="n"/>
-      <c r="F9" s="295">
-        <f>SUM(C9:E9)</f>
-        <v/>
-      </c>
+      <c r="F9" s="295" t="n"/>
     </row>
     <row r="10" ht="14.5" customHeight="1" s="291">
       <c r="A10" s="26" t="n">
@@ -17303,8 +17101,12 @@
       </c>
       <c r="B10" s="296" t="n"/>
       <c r="C10" s="296" t="n"/>
-      <c r="D10" s="296" t="n"/>
-      <c r="E10" s="296" t="n"/>
+      <c r="D10" s="296" t="n">
+        <v>2619.42</v>
+      </c>
+      <c r="E10" s="296" t="n">
+        <v>2661.51</v>
+      </c>
       <c r="F10" s="296" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1" s="291">
@@ -17313,8 +17115,12 @@
       </c>
       <c r="B11" s="295" t="n"/>
       <c r="C11" s="295" t="n"/>
-      <c r="D11" s="295" t="n"/>
-      <c r="E11" s="295" t="n"/>
+      <c r="D11" s="295" t="n">
+        <v>12743.37</v>
+      </c>
+      <c r="E11" s="295" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="295" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1" s="291">
@@ -17333,7 +17139,9 @@
       </c>
       <c r="B13" s="295" t="n"/>
       <c r="C13" s="295" t="n"/>
-      <c r="D13" s="295" t="n"/>
+      <c r="D13" s="295" t="n">
+        <v>31386.73</v>
+      </c>
       <c r="E13" s="295" t="n"/>
       <c r="F13" s="295" t="n"/>
     </row>
@@ -17343,8 +17151,12 @@
       </c>
       <c r="B14" s="296" t="n"/>
       <c r="C14" s="296" t="n"/>
-      <c r="D14" s="296" t="n"/>
-      <c r="E14" s="296" t="n"/>
+      <c r="D14" s="296" t="n">
+        <v>240</v>
+      </c>
+      <c r="E14" s="296" t="n">
+        <v>1726.98</v>
+      </c>
       <c r="F14" s="296" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1" s="291">
@@ -17354,7 +17166,9 @@
       <c r="B15" s="295" t="n"/>
       <c r="C15" s="295" t="n"/>
       <c r="D15" s="295" t="n"/>
-      <c r="E15" s="295" t="n"/>
+      <c r="E15" s="295" t="n">
+        <v>400</v>
+      </c>
       <c r="F15" s="295" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1" s="291">
@@ -17363,8 +17177,12 @@
       </c>
       <c r="B16" s="296" t="n"/>
       <c r="C16" s="296" t="n"/>
-      <c r="D16" s="296" t="n"/>
-      <c r="E16" s="296" t="n"/>
+      <c r="D16" s="296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="296" t="n">
+        <v>1219.62</v>
+      </c>
       <c r="F16" s="296" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1" s="291">
@@ -17373,8 +17191,12 @@
       </c>
       <c r="B17" s="295" t="n"/>
       <c r="C17" s="295" t="n"/>
-      <c r="D17" s="295" t="n"/>
-      <c r="E17" s="295" t="n"/>
+      <c r="D17" s="295" t="n">
+        <v>12686.08</v>
+      </c>
+      <c r="E17" s="295" t="n">
+        <v>373.21</v>
+      </c>
       <c r="F17" s="295" t="n"/>
     </row>
     <row r="18" ht="18" customHeight="1" s="291">
@@ -17383,7 +17205,9 @@
       </c>
       <c r="B18" s="296" t="n"/>
       <c r="C18" s="296" t="n"/>
-      <c r="D18" s="296" t="n"/>
+      <c r="D18" s="296" t="n">
+        <v>75</v>
+      </c>
       <c r="E18" s="296" t="n"/>
       <c r="F18" s="296" t="n"/>
     </row>
@@ -17393,8 +17217,12 @@
       </c>
       <c r="B19" s="295" t="n"/>
       <c r="C19" s="295" t="n"/>
-      <c r="D19" s="295" t="n"/>
-      <c r="E19" s="295" t="n"/>
+      <c r="D19" s="295" t="n">
+        <v>4159.29</v>
+      </c>
+      <c r="E19" s="295" t="n">
+        <v>810.8200000000001</v>
+      </c>
       <c r="F19" s="295" t="n"/>
     </row>
     <row r="20" ht="18" customHeight="1" s="291">
@@ -17403,7 +17231,9 @@
       </c>
       <c r="B20" s="296" t="n"/>
       <c r="C20" s="296" t="n"/>
-      <c r="D20" s="296" t="n"/>
+      <c r="D20" s="296" t="n">
+        <v>26548.67</v>
+      </c>
       <c r="E20" s="296" t="n"/>
       <c r="F20" s="296" t="n"/>
     </row>
@@ -17453,8 +17283,12 @@
       </c>
       <c r="B25" s="295" t="n"/>
       <c r="C25" s="295" t="n"/>
-      <c r="D25" s="295" t="n"/>
-      <c r="E25" s="295" t="n"/>
+      <c r="D25" s="295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="295" t="n">
+        <v>469.37</v>
+      </c>
       <c r="F25" s="295" t="n"/>
     </row>
     <row r="26" ht="18" customHeight="1" s="291">
@@ -17463,8 +17297,12 @@
       </c>
       <c r="B26" s="296" t="n"/>
       <c r="C26" s="296" t="n"/>
-      <c r="D26" s="296" t="n"/>
-      <c r="E26" s="296" t="n"/>
+      <c r="D26" s="296" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="E26" s="296" t="n">
+        <v>5905.5</v>
+      </c>
       <c r="F26" s="296" t="n"/>
     </row>
     <row r="27" ht="18" customHeight="1" s="291">
@@ -17479,10 +17317,7 @@
       <c r="E27" s="295" t="n">
         <v>579.73</v>
       </c>
-      <c r="F27" s="295">
-        <f>SUM(C27:E27)</f>
-        <v/>
-      </c>
+      <c r="F27" s="295" t="n"/>
     </row>
     <row r="28" ht="18" customHeight="1" s="291">
       <c r="A28" s="26" t="n">
@@ -17496,10 +17331,7 @@
       <c r="E28" s="296" t="n">
         <v>1103.04</v>
       </c>
-      <c r="F28" s="296">
-        <f>SUM(C28:E28)</f>
-        <v/>
-      </c>
+      <c r="F28" s="296" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1" s="291">
       <c r="A29" s="24" t="n">
@@ -17511,10 +17343,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="295" t="n"/>
-      <c r="F29" s="295">
-        <f>SUM(C29:E29)</f>
-        <v/>
-      </c>
+      <c r="F29" s="295" t="n"/>
     </row>
     <row r="30" ht="18" customHeight="1" s="291">
       <c r="A30" s="26" t="n">
@@ -17526,10 +17355,7 @@
       <c r="E30" s="296" t="n">
         <v>4166.33</v>
       </c>
-      <c r="F30" s="296">
-        <f>SUM(C30:E30)</f>
-        <v/>
-      </c>
+      <c r="F30" s="296" t="n"/>
     </row>
     <row r="31" ht="18" customHeight="1" s="291">
       <c r="A31" s="24" t="n">
@@ -17538,14 +17364,10 @@
       <c r="B31" s="295" t="n"/>
       <c r="C31" s="295" t="n"/>
       <c r="D31" s="295" t="n"/>
-      <c r="E31" s="295">
-        <f>60+2353.07</f>
-        <v/>
-      </c>
-      <c r="F31" s="295">
-        <f>SUM(C31:E31)</f>
-        <v/>
-      </c>
+      <c r="E31" s="295" t="n">
+        <v>2413.07</v>
+      </c>
+      <c r="F31" s="295" t="n"/>
     </row>
     <row r="32" ht="18" customHeight="1" s="291">
       <c r="A32" s="26" t="n">
@@ -17571,10 +17393,7 @@
       <c r="C33" s="295" t="n"/>
       <c r="D33" s="295" t="n"/>
       <c r="E33" s="295" t="n"/>
-      <c r="F33" s="295">
-        <f>SUM(C33:E33)</f>
-        <v/>
-      </c>
+      <c r="F33" s="295" t="n"/>
     </row>
     <row r="34" ht="18" customHeight="1" s="291">
       <c r="A34" s="26" t="n">
@@ -17584,10 +17403,7 @@
       <c r="C34" s="296" t="n"/>
       <c r="D34" s="296" t="n"/>
       <c r="E34" s="296" t="n"/>
-      <c r="F34" s="296">
-        <f>SUM(C34:E34)</f>
-        <v/>
-      </c>
+      <c r="F34" s="296" t="n"/>
     </row>
     <row r="35" ht="18" customHeight="1" s="291">
       <c r="A35" s="28" t="inlineStr">
@@ -17969,7 +17785,9 @@
       <c r="B11" s="296" t="n"/>
       <c r="C11" s="296" t="n"/>
       <c r="D11" s="296" t="n"/>
-      <c r="E11" s="296" t="n"/>
+      <c r="E11" s="296" t="n">
+        <v>889.3800000000001</v>
+      </c>
       <c r="F11" s="296" t="n"/>
     </row>
     <row r="12" ht="14.5" customHeight="1" s="291">
@@ -17981,7 +17799,9 @@
       <c r="D12" s="295" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="295" t="n"/>
+      <c r="E12" s="295" t="n">
+        <v>479.25</v>
+      </c>
       <c r="F12" s="295" t="n"/>
     </row>
     <row r="13" ht="14.5" customHeight="1" s="291">
@@ -17993,7 +17813,9 @@
       <c r="D13" s="296" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="296" t="n"/>
+      <c r="E13" s="296" t="n">
+        <v>582.3199999999999</v>
+      </c>
       <c r="F13" s="296" t="n"/>
     </row>
     <row r="14" ht="14.5" customHeight="1" s="291">
@@ -18005,7 +17827,9 @@
       <c r="D14" s="295" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="295" t="n"/>
+      <c r="E14" s="295" t="n">
+        <v>274.86</v>
+      </c>
       <c r="F14" s="295" t="n"/>
     </row>
     <row r="15" ht="14.5" customHeight="1" s="291">
@@ -18037,7 +17861,9 @@
       <c r="D17" s="296" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="296" t="n"/>
+      <c r="E17" s="296" t="n">
+        <v>544.6799999999999</v>
+      </c>
       <c r="F17" s="296" t="n"/>
     </row>
     <row r="18" ht="14.5" customHeight="1" s="291">
@@ -18059,7 +17885,9 @@
       <c r="D19" s="296" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="296" t="n"/>
+      <c r="E19" s="296" t="n">
+        <v>1199.04</v>
+      </c>
       <c r="F19" s="296" t="n"/>
     </row>
     <row r="20" ht="14.5" customHeight="1" s="291">
@@ -18084,10 +17912,7 @@
       <c r="E21" s="296" t="n">
         <v>680.76</v>
       </c>
-      <c r="F21" s="296">
-        <f>SUM(C21:E21)</f>
-        <v/>
-      </c>
+      <c r="F21" s="296" t="n"/>
     </row>
     <row r="22" ht="14.5" customHeight="1" s="291">
       <c r="A22" s="24" t="n">
@@ -18097,10 +17922,7 @@
       <c r="C22" s="295" t="n"/>
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
-      <c r="F22" s="295">
-        <f>SUM(C22:E22)</f>
-        <v/>
-      </c>
+      <c r="F22" s="295" t="n"/>
     </row>
     <row r="23" ht="14.5" customHeight="1" s="291">
       <c r="A23" s="26" t="n">
@@ -18112,10 +17934,7 @@
       <c r="E23" s="296" t="n">
         <v>1508.21</v>
       </c>
-      <c r="F23" s="296">
-        <f>SUM(C23:E23)</f>
-        <v/>
-      </c>
+      <c r="F23" s="296" t="n"/>
     </row>
     <row r="24" ht="14.5" customHeight="1" s="291">
       <c r="A24" s="24" t="n">
@@ -18141,10 +17960,7 @@
       <c r="C25" s="296" t="n"/>
       <c r="D25" s="296" t="n"/>
       <c r="E25" s="296" t="n"/>
-      <c r="F25" s="296">
-        <f>SUM(C25:E25)</f>
-        <v/>
-      </c>
+      <c r="F25" s="296" t="n"/>
     </row>
     <row r="26" ht="14.5" customHeight="1" s="291">
       <c r="A26" s="24" t="n">
@@ -18154,10 +17970,7 @@
       <c r="C26" s="295" t="n"/>
       <c r="D26" s="295" t="n"/>
       <c r="E26" s="295" t="n"/>
-      <c r="F26" s="295">
-        <f>SUM(C26:E26)</f>
-        <v/>
-      </c>
+      <c r="F26" s="295" t="n"/>
     </row>
     <row r="27" ht="14.5" customHeight="1" s="291">
       <c r="A27" s="26" t="n">
@@ -18167,10 +17980,7 @@
       <c r="C27" s="296" t="n"/>
       <c r="D27" s="296" t="n"/>
       <c r="E27" s="296" t="n"/>
-      <c r="F27" s="296">
-        <f>SUM(C27:E27)</f>
-        <v/>
-      </c>
+      <c r="F27" s="296" t="n"/>
     </row>
     <row r="28" ht="14.5" customHeight="1" s="291">
       <c r="A28" s="24" t="n">
@@ -18180,10 +17990,7 @@
       <c r="C28" s="295" t="n"/>
       <c r="D28" s="295" t="n"/>
       <c r="E28" s="295" t="n"/>
-      <c r="F28" s="295">
-        <f>SUM(C28:E28)</f>
-        <v/>
-      </c>
+      <c r="F28" s="295" t="n"/>
     </row>
     <row r="29" ht="14.5" customHeight="1" s="291">
       <c r="A29" s="26" t="n">
@@ -18193,10 +18000,7 @@
       <c r="C29" s="296" t="n"/>
       <c r="D29" s="296" t="n"/>
       <c r="E29" s="296" t="n"/>
-      <c r="F29" s="296">
-        <f>SUM(C29:E29)</f>
-        <v/>
-      </c>
+      <c r="F29" s="296" t="n"/>
     </row>
     <row r="30" ht="14.5" customHeight="1" s="291">
       <c r="A30" s="28" t="inlineStr">
